--- a/biology/Médecine/Antiviral_(film)/Antiviral_(film).xlsx
+++ b/biology/Médecine/Antiviral_(film)/Antiviral_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antiviral est un film de science-fiction américano-canadien écrit et réalisé par Brandon Cronenberg et sorti en 2012.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un futur proche à Toronto, un médecin nommé Syd March travaille dans une toute nouvelle clinique proposant un service surprenant. En effet, les clients qui se rendent dans cet établissement viennent se faire injecter les maladies de leurs idoles. L'herpès, la malformation ou juste une simple grippe de la vedette en vogue rendue non contagieuse grâce à la technologie de la clinique. 
 Mais Syd March n'est pas un employé comme les autres... Il vend sur le marché noir les maladies de sa clinique.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Antiviral
 Titre français :
@@ -562,7 +578,7 @@
 Production : Niv Fichman
 Sociétés de production : Rhombus Media
 Distribution :  Alliance Atlantis
-Budget : 3 200 000 CAD environ[1]
+Budget : 3 200 000 CAD environ
 Pays d’origine : États-Unis et Canada
 Langue originale : anglais
 Format : Couleur (Technicolor) - 1,85:1 - 35 mm
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Caleb Landry Jones : Syd March
 Sarah Gadon : Hannah Geist
@@ -637,10 +655,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nominations
-1 nomination
-Récompenses
-2012 : meilleur premier film canadien au festival international du film de Toronto
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1 nomination</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antiviral_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antiviral_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2012 : meilleur premier film canadien au festival international du film de Toronto
 2012 : Lune d'argent au festival international du film indépendant de Bordeaux</t>
         </is>
       </c>
